--- a/meta/2-3-2-a.xlsx
+++ b/meta/2-3-2-a.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -97,6 +97,12 @@
     <t>Цель 2.: «Ликвидация голода, обеспечение продовольственной безопасности и улучшение питания и содействие устойчивому развитию сельского хозяйства»</t>
   </si>
   <si>
+    <t>2.3.  «К 2030 году удвоить продуктивность сельского хозяйства и доходы мелких производителей продовольствия, в частности женщин, представителей коренных народов, фермерских семейных хозяйств, скотоводов и рыбаков, (рыбоводство или рыбных хозяйств) в том числе посредством обеспечения гарантированного и равного доступа к земле, другим производственным ресурсам и факторам сельскохозяйственного производства, знаниям, финансовым услугам, рынкам и возможностям для увеличения добавленной стоимости и занятости в несельскохозяйственных секторах»</t>
+  </si>
+  <si>
+    <t>2.3.2.a «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
+  </si>
+  <si>
     <t xml:space="preserve">Национальный cтатистический комитет
 Кыргызской Республики отдел статистики сельского хозяйства
 </t>
@@ -112,18 +118,6 @@
   </si>
   <si>
     <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц.  заложенного в программном обеспечении по вводу и разработке данных. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
-  </si>
-  <si>
-    <t>2.3.  «К 2030 году удвоить продуктивность сельского хозяйства и доходы мелких производителей продовольствия, в частности женщин, представителей коренных народов, фермерских семейных хозяйств, скотоводов и рыбаков, (рыбоводство или рыбных хозяйств) в том числе посредством обеспечения гарантированного и равного доступа к земле, другим производственным ресурсам и факторам сельскохозяйственного производства, знаниям, финансовым услугам, рынкам и возможностям для увеличения добавленной стоимости и занятости в несельскохозяйственных секторах»</t>
-  </si>
-  <si>
-    <t>2.3.2.a «Доля произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции»</t>
   </si>
   <si>
     <t>Определении доли произведенной продукции сельскохозяйственными кооперативами в общем объеме произведенной продукции, в %</t>
@@ -154,57 +148,23 @@
 СПсхк = стоимость произведенной продукции сельскохозяйственных кооперативов;
 СВПсх = валовая стоимость продукции сельского хозяйства</t>
   </si>
+  <si>
+    <t xml:space="preserve">Проводится логический и арифметический контроль отчетных данных, анализ выходных таблиц.  заложенного в программном обеспечении по вводу и разработке данных. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеются динамические ряды с 2018 года. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,68 +257,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="2"/>
-    <cellStyle name="Обычный 2 3" xfId="4"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 2 3" xfId="5"/>
+    <cellStyle name="Обычный 2 4" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -662,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,11 +637,11 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -691,16 +649,16 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,16 +671,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
+      <c r="B6" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,23 +688,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,24 +717,24 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>36</v>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
+      <c r="B14" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,16 +747,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -812,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +798,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
